--- a/litdata/pol-sol_parameters_150223.xlsx
+++ b/litdata/pol-sol_parameters_150223.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn621\OneDrive - Imperial College London\Documents\CO2 Project\3. Modelling\3.1 Solubility\3.1.3 NET SAFT-g Mie\Model\litdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{046D510E-D2AC-43E0-9530-B4EFF08860AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{046D510E-D2AC-43E0-9530-B4EFF08860AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,21 @@
     <sheet name="Hansen" sheetId="3" r:id="rId4"/>
     <sheet name="PC-SAFT" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -31,60 +42,153 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Secondary Source</t>
+  </si>
+  <si>
+    <t>Primary Source</t>
+  </si>
+  <si>
+    <t>T* (K)</t>
+  </si>
+  <si>
+    <t>p* (MPa)</t>
+  </si>
+  <si>
+    <t>V* (cm3/g)</t>
+  </si>
+  <si>
+    <t>rho* (g/cm^3)</t>
+  </si>
+  <si>
+    <t>PEEK</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ie300975h</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>PMMA</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.supflu.2019.104565</t>
+  </si>
+  <si>
+    <t>C2H4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0376-7388(98)00123-9</t>
+  </si>
+  <si>
+    <t>PPO</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ma200602d</t>
+  </si>
+  <si>
+    <t>HDPE</t>
+  </si>
+  <si>
+    <t>tianyi thesis</t>
+  </si>
+  <si>
+    <t>PET</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.memsci.2013.10.009</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.memsci.2013.02.013</t>
+  </si>
+  <si>
     <t>Polymer</t>
   </si>
   <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>Tg (°C)</t>
+  </si>
+  <si>
+    <t>B0_g (kg/cm^2)</t>
+  </si>
+  <si>
+    <t>B0_r (kg/cm^2)</t>
+  </si>
+  <si>
+    <t>a0_g (cm^3/g)</t>
+  </si>
+  <si>
+    <t>a1_g (cm^3/g°C)</t>
+  </si>
+  <si>
+    <t>a2_g (cm^3/g°C^2)</t>
+  </si>
+  <si>
+    <t>B0_g (MPa)</t>
+  </si>
+  <si>
+    <t>B1_g (°C^-1)</t>
+  </si>
+  <si>
+    <t>a0_r (cm^3/g)</t>
+  </si>
+  <si>
+    <t>a1_r (cm^3/g°C)</t>
+  </si>
+  <si>
+    <t>a2_r (cm^3/g°C^2)</t>
+  </si>
+  <si>
+    <t>B0_r (MPa)</t>
+  </si>
+  <si>
+    <t>B1_r (°C^-1)</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ie3021076</t>
+  </si>
+  <si>
+    <t>PEMA</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/ie3021076</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fluid.2014.08.010</t>
+  </si>
+  <si>
+    <t>PAr</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/pol.1982.180200811</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
     <t>Source</t>
   </si>
   <si>
-    <t>PEEK</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1021/ie300975h</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>T* (K)</t>
-  </si>
-  <si>
-    <t>p* (MPa)</t>
-  </si>
-  <si>
-    <t>V* (cm3/g)</t>
-  </si>
-  <si>
-    <t>rho* (g/cm^3)</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>PMMA</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.supflu.2019.104565</t>
-  </si>
-  <si>
-    <t>C2H4</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/S0376-7388(98)00123-9</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
     <t>delta_D</t>
   </si>
   <si>
@@ -110,106 +214,13 @@
   </si>
   <si>
     <t>https://doi.org/10.1021/ie0003887</t>
-  </si>
-  <si>
-    <t>PPO</t>
-  </si>
-  <si>
-    <t>Primary Source</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1021/ma200602d</t>
-  </si>
-  <si>
-    <t>Secondary Source</t>
-  </si>
-  <si>
-    <t>HDPE</t>
-  </si>
-  <si>
-    <t>tianyi thesis</t>
-  </si>
-  <si>
-    <t>PET</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.memsci.2013.10.009</t>
-  </si>
-  <si>
-    <t>B0_r (MPa)</t>
-  </si>
-  <si>
-    <t>B1_r (°C^-1)</t>
-  </si>
-  <si>
-    <t>B0_g (MPa)</t>
-  </si>
-  <si>
-    <t>B1_g (°C^-1)</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>Tg (°C)</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1021/ie3021076</t>
-  </si>
-  <si>
-    <t>https://pubs.acs.org/doi/10.1021/ie3021076</t>
-  </si>
-  <si>
-    <t>PEMA</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.fluid.2014.08.010</t>
-  </si>
-  <si>
-    <t>chi</t>
-  </si>
-  <si>
-    <t>PAr</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/pol.1982.180200811</t>
-  </si>
-  <si>
-    <t>B0_g (kg/cm^2)</t>
-  </si>
-  <si>
-    <t>B0_r (kg/cm^2)</t>
-  </si>
-  <si>
-    <t>a0_g (cm^3/g)</t>
-  </si>
-  <si>
-    <t>a1_g (cm^3/g°C)</t>
-  </si>
-  <si>
-    <t>a2_g (cm^3/g°C^2)</t>
-  </si>
-  <si>
-    <t>a0_r (cm^3/g)</t>
-  </si>
-  <si>
-    <t>a1_r (cm^3/g°C)</t>
-  </si>
-  <si>
-    <t>a2_r (cm^3/g°C^2)</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.memsci.2013.02.013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,43 +549,43 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>804</v>
@@ -590,13 +601,13 @@
         <v>1.3663068725235687</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -612,13 +623,13 @@
         <v>1.5149219815179518</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>755</v>
@@ -634,13 +645,13 @@
         <v>1.2750223128904756</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>145</v>
@@ -656,13 +667,13 @@
         <v>0.94304036212749909</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>215</v>
@@ -678,7 +689,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -700,7 +711,7 @@
         <v>1.2450000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -722,12 +733,12 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>739</v>
@@ -743,12 +754,12 @@
         <v>1.177</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>649</v>
@@ -764,12 +775,12 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>735</v>
@@ -785,12 +796,12 @@
         <v>1.425</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>750</v>
@@ -832,7 +843,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -844,62 +855,62 @@
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C2">
         <v>150</v>
@@ -923,12 +934,12 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>92</v>
@@ -952,9 +963,9 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>43</v>
@@ -981,23 +992,23 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P5">
         <v>0.69</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>176.8</v>
@@ -1047,25 +1058,25 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>44.01</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1073,7 +1084,7 @@
         <v>28.013999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1081,7 +1092,7 @@
         <v>16.04</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1102,31 +1113,31 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>14.7</v>
@@ -1138,20 +1149,20 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>18.100000000000001</v>
@@ -1163,12 +1174,12 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>11.9</v>
@@ -1180,12 +1191,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -1218,31 +1229,31 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>2.5691999999999999</v>
@@ -1254,12 +1265,12 @@
         <v>2.5636999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>1.2053</v>
